--- a/RNN_python/output_data_test/anom_data1.xlsx
+++ b/RNN_python/output_data_test/anom_data1.xlsx
@@ -427,7 +427,7 @@
         <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>-11.11196161079226</v>
+        <v>-6.172632707428221</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.27827000288912</v>
+        <v>-9.011624136660771</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.347489126852267</v>
+        <v>2.442017187425421</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43059.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2.42427337959262</v>
+        <v>8.779239098129665</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>7.334825409279077</v>
+        <v>12.24931654648039</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>10.44560634502946</v>
+        <v>16.35222676750791</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>17.83021199031438</v>
+        <v>20.27248538555537</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>115.5804399458602</v>
+        <v>36.76215981129479</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>445.8846126953324</v>
+        <v>475.8934110561885</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>413.1271906658789</v>
+        <v>377.5432718423418</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>417.322251049132</v>
+        <v>472.1020646331694</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>315.2790826839947</v>
+        <v>277.284697421598</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>277.7719881924076</v>
+        <v>290.5059285789049</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>236.5084645249581</v>
+        <v>224.5552071230643</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>194.4836192101811</v>
+        <v>171.4558150224673</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>157.2649440319506</v>
+        <v>143.2997362227932</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>125.1806476341272</v>
+        <v>113.2643901042485</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>97.22740669244536</v>
+        <v>86.13312872101915</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>72.60615330689657</v>
+        <v>62.0941146390026</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>51.12710905314157</v>
+        <v>41.7707439284553</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>33.08396915324462</v>
+        <v>25.50744341670935</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>18.99526096588779</v>
+        <v>13.44717062332579</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>9.399719827784736</v>
+        <v>5.539314255144149</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>4.530742315195226</v>
+        <v>1.582623348588143</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data1.xlsx
+++ b/RNN_python/output_data_test/anom_data1.xlsx
@@ -427,7 +427,7 @@
         <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.172632707428221</v>
+        <v>6.907316387812699</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.011624136660771</v>
+        <v>7.60383436931582</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2.442017187425421</v>
+        <v>9.815509558793977</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43059.125</v>
       </c>
       <c r="D5" t="n">
-        <v>8.779239098129665</v>
+        <v>12.90755745382887</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>12.24931654648039</v>
+        <v>11.93096179841238</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>16.35222676750791</v>
+        <v>8.382636920241467</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>20.27248538555537</v>
+        <v>8.922642218088299</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>36.76215981129479</v>
+        <v>34.47075779867637</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>475.8934110561885</v>
+        <v>471.8569844144843</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>377.5432718423418</v>
+        <v>375.5260744903962</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>472.1020646331694</v>
+        <v>454.7420435108195</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>277.284697421598</v>
+        <v>277.6880549015139</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>290.5059285789049</v>
+        <v>297.3776749025653</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>224.5552071230643</v>
+        <v>229.0939056209459</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>171.4558150224673</v>
+        <v>176.639012111435</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>143.2997362227932</v>
+        <v>150.5608704539046</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>113.2643901042485</v>
+        <v>122.5716896121535</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>86.13312872101915</v>
+        <v>97.01760688524095</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>62.0941146390026</v>
+        <v>69.51017967235876</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>41.7707439284553</v>
+        <v>44.48879049776873</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>25.50744341670935</v>
+        <v>27.57345183620903</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>13.44717062332579</v>
+        <v>17.34367874018068</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5.539314255144149</v>
+        <v>11.43713852577379</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1.582623348588143</v>
+        <v>2.607236902851</v>
       </c>
     </row>
   </sheetData>
